--- a/MIS.xlsx
+++ b/MIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software_Development\GitHub\Embedded_CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMBEDDED2\Documents\GitHub\Embedded_CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DFB4D-ED79-4E32-931B-9B6621B98FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MIS Report" sheetId="3" r:id="rId1"/>
@@ -28,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="127">
   <si>
     <t>Cluster Upcoming variants</t>
   </si>
   <si>
-    <t>Sr.No.</t>
-  </si>
-  <si>
     <t>Activity Description</t>
   </si>
   <si>
@@ -162,21 +158,6 @@
     <t>Pending for 5 month</t>
   </si>
   <si>
-    <r>
-      <t>Dependent Failure Analysis (DFA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) as per ISO26262, ISO26262 Output work docs, Validation, FMEA etc. for PCB &amp; Components</t>
-    </r>
-  </si>
-  <si>
     <t>Customer faces issue</t>
   </si>
   <si>
@@ -198,19 +179,6 @@
     <t>https://www.javatpoint.com/mis-report-in-excel</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">5" Color LCD to be finalised for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>scooter segment.</t>
-    </r>
-  </si>
-  <si>
     <t>Avinash sir, Mangesh</t>
   </si>
   <si>
@@ -314,13 +282,139 @@
   </si>
   <si>
     <t>Drawing need to prepare for LCD &amp; Backlite after finalizing, Pending Inputs from marketting</t>
+  </si>
+  <si>
+    <t>Scope of Action </t>
+  </si>
+  <si>
+    <t>Functional testing setup for mass production.</t>
+  </si>
+  <si>
+    <t>QA (Quality Assurance) professionals</t>
+  </si>
+  <si>
+    <t>Determine the test requirements, Design the test setup, Develop the test procedures (including SOPs and work instructions), Train the production staff, Monitor the test results.</t>
+  </si>
+  <si>
+    <t>Improve product's functional safety, Avoid Business Loss due to returns(field failure) &amp; rejections</t>
+  </si>
+  <si>
+    <t>S/W Validation Testing &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Samadhan, Dheeraj</t>
+  </si>
+  <si>
+    <t>IATF Internal Audit (Software Development)</t>
+  </si>
+  <si>
+    <t>Samadhan</t>
+  </si>
+  <si>
+    <t>IATF16949 - 8.3.2.3 (Development of products with embedded software)</t>
+  </si>
+  <si>
+    <t>Analysis of rejection</t>
+  </si>
+  <si>
+    <t>Business Development Team</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Conduct Qualification tests, compose Test Plans.Evaluate software quality and readiness.Obtain client acceptance and sign-off.Conduct tests in collaboration with clients and customer representatives.Include system testing &amp; acceptance testing.Software Safety Requirement (SSR) verification as per ISO 26262 standard and vehicle-level environment.Hardware in Loop (HIL) Testingvv</t>
+  </si>
+  <si>
+    <t>READY symbol condition in discussion with EMF. Once updated firmware received ABZO will share with PVG in connection.</t>
+  </si>
+  <si>
+    <t>Create a permeant standard CAN Matrix for PVG</t>
+  </si>
+  <si>
+    <t>Test bench to be repaired with the help of ABZO Motors</t>
+  </si>
+  <si>
+    <t>Communicate with ABZO team</t>
+  </si>
+  <si>
+    <t>Production Inspection 100%, R&amp;D</t>
+  </si>
+  <si>
+    <t>Cluster - Bluetooth Feature data matrix</t>
+  </si>
+  <si>
+    <t>Communicate with the customer to provide the Bluetooth feature data matrix based on the input CAN database (Format)</t>
+  </si>
+  <si>
+    <t>Customer's need, much cheaper compared to IOT</t>
+  </si>
+  <si>
+    <t>Design PCB &amp; LCD as per the sample</t>
+  </si>
+  <si>
+    <t>Reduced R&amp;D Timeline, chance for future improvements</t>
+  </si>
+  <si>
+    <t>Share Updated datasheet to BD to explain the cluster functions to the customer</t>
+  </si>
+  <si>
+    <t>Advantages of PVG cluster compared to similar products</t>
+  </si>
+  <si>
+    <t>Product marketing based on differentiation</t>
+  </si>
+  <si>
+    <t>Dependent Failure Analysis (DFA) as per ISO26262, ISO26262 Output work docs, Validation, FMEA etc. for PCB &amp; Components</t>
+  </si>
+  <si>
+    <t>5" Color LCD to be finalised for scooter segment.</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Delay in project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABZO Motors (Ronald fernandez)  - Clarify the condition for ready symbol </t>
+  </si>
+  <si>
+    <t>BGAUSS - Collect BGAUSS Firmware &amp; Working Cluster Sample</t>
+  </si>
+  <si>
+    <t>ARENQ (Vishnu. V)</t>
+  </si>
+  <si>
+    <t>Prestrogen</t>
+  </si>
+  <si>
+    <t>Pramod sir</t>
+  </si>
+  <si>
+    <t>Dheeraj sir</t>
+  </si>
+  <si>
+    <t>Dheeraj sir, Pramod sir, Swapnil sir</t>
+  </si>
+  <si>
+    <t>Pramod sir and Dheeraj sir</t>
+  </si>
+  <si>
+    <t>Automobile (Ravishankar Kasthuri) - Verify CAN matrix for Automobile with the motor controller vendorfor any required changes</t>
+  </si>
+  <si>
+    <t>REVELEC (Shuhaib) - cluster development</t>
+  </si>
+  <si>
+    <t>CAL on (DOL Mobility) - Technical Solutions: DOL mobility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,21 +445,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -380,12 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -397,37 +470,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -450,15 +492,37 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +532,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -569,26 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -632,51 +670,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -692,19 +685,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -817,262 +797,848 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,387 +1918,937 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF42A84-A1E3-4FBA-B768-4B86C698487D}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="37"/>
+    <col min="2" max="2" width="6.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="H2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A3" s="91">
+        <v>1</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="42">
+        <v>45135</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" thickBot="1">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="96"/>
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="36">
+      <c r="A7" s="124">
+        <v>1</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="153">
+        <v>45036</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36">
+      <c r="A8" s="104">
+        <v>2</v>
+      </c>
+      <c r="B8" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A3" s="49">
+      <c r="G8" s="63"/>
+      <c r="H8" s="39">
+        <v>44838</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="72">
+      <c r="A9" s="104">
+        <v>3</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="138"/>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="39">
+        <v>45135</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A10" s="105">
+        <v>4</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="155"/>
+      <c r="D10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="157">
+        <v>45159</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" s="104">
+        <v>6</v>
+      </c>
+      <c r="B12" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="141"/>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="39">
+        <v>45134</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60">
+      <c r="A13" s="104">
+        <v>7</v>
+      </c>
+      <c r="B13" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="142"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="39">
+        <v>44889</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60.75" thickBot="1">
+      <c r="A14" s="105">
+        <v>8</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="143"/>
+      <c r="D14" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="87">
+        <v>45063</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" thickBot="1">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="36">
+      <c r="A18" s="93">
+        <v>1</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="145"/>
+      <c r="D18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="48">
+        <v>45049</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="147"/>
+      <c r="D19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="49">
+        <v>45100</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="24">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="49">
+        <v>45117</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A21" s="94">
+        <v>4</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="51">
+        <v>45194</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" thickBot="1">
+      <c r="A25" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="36">
+      <c r="A26" s="124">
+        <v>1</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="130">
+        <v>45075</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60">
+      <c r="A27" s="104">
+        <v>2</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="112">
+        <v>45166</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60.75" customHeight="1">
+      <c r="A28" s="104">
+        <v>3</v>
+      </c>
+      <c r="B28" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="112">
+        <v>45156</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="24">
+      <c r="A29" s="104">
+        <v>4</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="112">
+        <v>45135</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60.75" customHeight="1">
+      <c r="A30" s="115">
+        <v>5</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="117"/>
+      <c r="D30" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="121">
+        <v>45135</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="37.5" customHeight="1">
+      <c r="A31" s="104">
+        <v>6</v>
+      </c>
+      <c r="B31" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="132"/>
+      <c r="D31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="24">
+      <c r="A32" s="104">
+        <v>7</v>
+      </c>
+      <c r="B32" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="123"/>
+      <c r="D32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="24">
+      <c r="A33" s="104">
         <v>8</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="B33" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="123"/>
+      <c r="D33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="24">
+      <c r="A34" s="104">
         <v>9</v>
       </c>
-      <c r="G3" s="55">
-        <v>45135</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="B34" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="123"/>
+      <c r="D34" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="150"/>
+      <c r="F34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="24">
+      <c r="A35" s="104">
+        <v>10</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="123"/>
+      <c r="D35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A36" s="104">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="B36" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="139"/>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="22">
-        <v>45036</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="8">
-        <v>44838</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60">
-      <c r="A9" s="4">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="8">
-        <v>45135</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36">
-      <c r="A10" s="4">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="8">
-        <v>45159</v>
-      </c>
-      <c r="H10" s="43" t="s">
+      <c r="G36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="39">
+        <v>45185</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="27">
-        <v>45185</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45134</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="A13" s="29">
-        <v>7</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="40">
-        <v>44889</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60">
-      <c r="A14" s="30">
-        <v>8</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="44">
-        <v>45063</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="46" t="s">
-        <v>46</v>
+      <c r="J36" s="5"/>
+      <c r="K36" s="84" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="35">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62C8CE2-F3C5-467E-87A2-26DD244AA645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,27 +2859,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C24DA2-15F4-48F6-BDA0-53E859B40C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,190 +2904,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>5</v>
+      <c r="A1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="75">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="75" t="s">
+      <c r="B2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>76</v>
+      <c r="D7" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>76</v>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="73">
+      <c r="A9" s="27">
         <v>2</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>76</v>
+      <c r="B9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="75"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="75"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="75"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="73"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="75"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="73"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,10 +3095,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB36AAE-AD06-47AC-8C2C-0C7CC3D04DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1995,99 +3111,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="72" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
+      <c r="B1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="62">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>69</v>
+      <c r="B2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="69"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>67</v>
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>65</v>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="69"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="66"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="69"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="66"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="63"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="62">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>59</v>
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>57</v>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/MIS.xlsx
+++ b/MIS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
   <si>
     <t>Cluster Upcoming variants</t>
   </si>
@@ -408,13 +408,124 @@
   </si>
   <si>
     <t>CAL on (DOL Mobility) - Technical Solutions: DOL mobility</t>
+  </si>
+  <si>
+    <t>Customer List</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Multi-Colour Segmented Display for Cluster (EV)</t>
+  </si>
+  <si>
+    <t>Dheeraj, Pramod</t>
+  </si>
+  <si>
+    <t>Select the  cluster symbol colours based on market requirement and update current symbols if necessary</t>
+  </si>
+  <si>
+    <t>Analyse Market Requirement,</t>
+  </si>
+  <si>
+    <t>LCD Coloured segment - Need to check feasibility with existing supplier</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Communicate with RK Team based upon market requirement analysis (LCD Colour) done by BD Team</t>
+  </si>
+  <si>
+    <t>Price negotiation</t>
+  </si>
+  <si>
+    <t>Factors Affecting Project</t>
+  </si>
+  <si>
+    <t>TFT Cluster (Infotainment System) Development</t>
+  </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>Nadir</t>
+  </si>
+  <si>
+    <t>FreeRTOS</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Affortability/Price reduction: Opensource/Free tool</t>
+  </si>
+  <si>
+    <t>Stand-alone CAN Controller with SPI Interface</t>
+  </si>
+  <si>
+    <t>LINUX (SocketCAN)</t>
+  </si>
+  <si>
+    <t>SocketCAN , Socket Programming</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Widget Toolkit (Qt Creator)</t>
+  </si>
+  <si>
+    <t>GUI/HMI Development, OOP</t>
+  </si>
+  <si>
+    <t>IOT (ESP) Development</t>
+  </si>
+  <si>
+    <t>Web Technologies</t>
+  </si>
+  <si>
+    <t>Cheaper compared to GSM</t>
+  </si>
+  <si>
+    <t>Advanced Web Technologies</t>
+  </si>
+  <si>
+    <t>Cloud Server (Google Firebase)</t>
+  </si>
+  <si>
+    <t>Quality standards.</t>
+  </si>
+  <si>
+    <t>Product standards</t>
+  </si>
+  <si>
+    <t>Quality standards</t>
+  </si>
+  <si>
+    <t>Risk tolerance</t>
+  </si>
+  <si>
+    <t>Product price reduction</t>
+  </si>
+  <si>
+    <t>There is not proper communication for customer &amp; Customer faces issue</t>
+  </si>
+  <si>
+    <t>Resource availability</t>
+  </si>
+  <si>
+    <t>Resource availability &amp; Risk tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource availability </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,20 +560,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -503,26 +600,86 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +722,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1065,19 +1234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1168,13 +1324,154 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,91 +1483,82 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,52 +1571,177 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,31 +1750,293 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,6 +2044,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1379,265 +2075,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1919,928 +2394,1376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="6.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="6.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="91">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="186"/>
+      <c r="D3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="38">
         <v>45135</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A5" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="158"/>
+      <c r="D6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="36">
-      <c r="A7" s="124">
+      <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="151" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="153">
+      <c r="H7" s="74">
         <v>45036</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83" t="s">
+      <c r="J7" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36">
-      <c r="A8" s="104">
+    <row r="8" spans="1:11" ht="24">
+      <c r="A8" s="62">
         <v>2</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="136"/>
+      <c r="C8" s="211"/>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="39">
+      <c r="G8" s="172"/>
+      <c r="H8" s="35">
         <v>44838</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="84" t="s">
+      <c r="J8" s="218" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="72">
-      <c r="A9" s="104">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A9" s="62">
         <v>3</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="213"/>
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="39">
+      <c r="G9" s="172"/>
+      <c r="H9" s="35">
         <v>45135</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A10" s="105">
+    <row r="10" spans="1:11" ht="24">
+      <c r="A10" s="62">
         <v>4</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="215"/>
+      <c r="D10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="157">
+      <c r="G10" s="172"/>
+      <c r="H10" s="35">
         <v>45159</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="89" t="s">
+      <c r="J10" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="104">
+    <row r="11" spans="1:11" ht="24" customHeight="1">
+      <c r="A11" s="79">
+        <v>5</v>
+      </c>
+      <c r="B11" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="193"/>
+      <c r="D11" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="90">
+        <v>45134</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24">
+      <c r="A12" s="62">
         <v>6</v>
       </c>
-      <c r="B12" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="141"/>
+      <c r="B12" s="190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="190"/>
       <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="35">
+        <v>44889</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A13" s="63">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="39">
-        <v>45134</v>
-      </c>
-      <c r="I12" s="47" t="s">
+      <c r="B13" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="191"/>
+      <c r="D13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="56">
+        <v>45063</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" thickBot="1">
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="194" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="196"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="201"/>
+      <c r="D16" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="48">
+      <c r="A17" s="60">
+        <v>1</v>
+      </c>
+      <c r="B17" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="203"/>
+      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="204" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="41">
+        <v>45049</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="62.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="174"/>
+      <c r="D18" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="205"/>
+      <c r="H18" s="42">
+        <v>45100</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="24">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="174"/>
+      <c r="D19" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="205"/>
+      <c r="H19" s="42">
+        <v>45117</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A20" s="61">
+        <v>4</v>
+      </c>
+      <c r="B20" s="175" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="176"/>
+      <c r="D20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="206"/>
+      <c r="H20" s="44">
+        <v>45194</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="197" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="199"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" thickBot="1">
+      <c r="A23" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="209"/>
+      <c r="D23" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A24" s="68">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="165"/>
+      <c r="D24" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="99">
+        <v>45075</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A25" s="62">
+        <v>2</v>
+      </c>
+      <c r="B25" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="190"/>
+      <c r="D25" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="101">
+        <v>45166</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="36">
+      <c r="A26" s="62">
+        <v>3</v>
+      </c>
+      <c r="B26" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="101">
+        <v>45156</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="219" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="24">
+      <c r="A27" s="62">
+        <v>4</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="101">
+        <v>45135</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A28" s="65">
+        <v>5</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="169"/>
+      <c r="D28" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="105">
+        <v>45135</v>
+      </c>
+      <c r="I28" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="104">
+      <c r="J28" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="54.75" customHeight="1">
+      <c r="A29" s="65">
+        <v>6</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="166"/>
+      <c r="D29" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="109">
+        <v>45135</v>
+      </c>
+      <c r="I29" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A30" s="63">
+        <v>7</v>
+      </c>
+      <c r="B30" s="191" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="191"/>
+      <c r="D30" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="112">
+        <v>45135</v>
+      </c>
+      <c r="I30" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" thickBot="1">
+      <c r="C31" s="78"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A32" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="161"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="163"/>
+      <c r="D33" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A34" s="68">
+        <v>1</v>
+      </c>
+      <c r="B34" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="D34" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="39">
-        <v>44889</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="60.75" thickBot="1">
-      <c r="A14" s="105">
+      <c r="G34" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="99">
+        <v>45075</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="24">
+      <c r="A35" s="62">
+        <v>2</v>
+      </c>
+      <c r="B35" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="167"/>
+      <c r="D35" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="101">
+        <v>45135</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="62">
+        <v>3</v>
+      </c>
+      <c r="B36" s="216" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="216"/>
+      <c r="D36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="62">
+        <v>4</v>
+      </c>
+      <c r="B37" s="217" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="217"/>
+      <c r="D37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="64"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="62">
+        <v>5</v>
+      </c>
+      <c r="B38" s="217" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="217"/>
+      <c r="D38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="64"/>
+    </row>
+    <row r="39" spans="1:11" ht="24.75">
+      <c r="A39" s="62">
+        <v>6</v>
+      </c>
+      <c r="B39" s="217" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="217"/>
+      <c r="D39" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="115"/>
+      <c r="F39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="64"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="62">
+        <v>7</v>
+      </c>
+      <c r="B40" s="217" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="217"/>
+      <c r="D40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="64"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="63">
         <v>8</v>
       </c>
-      <c r="B14" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="86" t="s">
+      <c r="B41" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="189"/>
+      <c r="D41" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="87">
-        <v>45063</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="97" t="s">
+      <c r="G41" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="75">
+        <v>45185</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K41" s="58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="121"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="45" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A45" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" thickBot="1">
+      <c r="A46" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="100" t="s">
+      <c r="C46" s="147"/>
+      <c r="D46" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F46" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G46" s="119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.75">
+      <c r="A47" s="138">
+        <v>1</v>
+      </c>
+      <c r="B47" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="148"/>
+      <c r="D47" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="36.75" customHeight="1">
+      <c r="A48" s="130">
+        <v>2</v>
+      </c>
+      <c r="B48" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="149"/>
+      <c r="D48" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A49" s="130">
+        <v>3</v>
+      </c>
+      <c r="B49" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="149"/>
+      <c r="D49" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A50" s="133">
+        <v>4</v>
+      </c>
+      <c r="B50" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="150"/>
+      <c r="D50" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" thickBot="1"/>
+    <row r="52" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A52" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="153"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="155"/>
+      <c r="D53" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="36">
-      <c r="A18" s="93">
+    </row>
+    <row r="54" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A54" s="130">
         <v>1</v>
       </c>
-      <c r="B18" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="48">
-        <v>45049</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60">
-      <c r="A19" s="1">
+      <c r="B54" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="149"/>
+      <c r="D54" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="143" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A55" s="133">
         <v>2</v>
       </c>
-      <c r="B19" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="49">
-        <v>45100</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="24">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="49">
-        <v>45117</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A21" s="94">
-        <v>4</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="51">
-        <v>45194</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" thickBot="1"/>
-    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A25" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="36">
-      <c r="A26" s="124">
-        <v>1</v>
-      </c>
-      <c r="B26" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="130">
-        <v>45075</v>
-      </c>
-      <c r="I26" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="104">
-        <v>2</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="112">
-        <v>45166</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60.75" customHeight="1">
-      <c r="A28" s="104">
-        <v>3</v>
-      </c>
-      <c r="B28" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="112">
-        <v>45156</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="24">
-      <c r="A29" s="104">
-        <v>4</v>
-      </c>
-      <c r="B29" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="112">
-        <v>45135</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="60.75" customHeight="1">
-      <c r="A30" s="115">
-        <v>5</v>
-      </c>
-      <c r="B30" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="121">
-        <v>45135</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="122" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A31" s="104">
-        <v>6</v>
-      </c>
-      <c r="B31" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="24">
-      <c r="A32" s="104">
-        <v>7</v>
-      </c>
-      <c r="B32" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="24">
-      <c r="A33" s="104">
-        <v>8</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="24">
-      <c r="A34" s="104">
-        <v>9</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="24">
-      <c r="A35" s="104">
-        <v>10</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A36" s="104">
-        <v>5</v>
-      </c>
-      <c r="B36" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="39">
-        <v>45185</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="84" t="s">
-        <v>115</v>
+      <c r="B55" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="156"/>
+      <c r="D55" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="144" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+  <mergeCells count="51">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2904,190 +3827,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="29">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3111,98 +4034,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>54</v>
       </c>
     </row>

--- a/MIS.xlsx
+++ b/MIS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="174">
   <si>
     <t>Cluster Upcoming variants</t>
   </si>
@@ -519,13 +519,43 @@
   </si>
   <si>
     <t xml:space="preserve">Resource availability </t>
+  </si>
+  <si>
+    <t>FMEA - PCB &amp; Components</t>
+  </si>
+  <si>
+    <t>Swapnil Kaware</t>
+  </si>
+  <si>
+    <t>Abnormal Failures need to be evaluated (Spike, Surge, Ripple, Reverse Polarity, Short Circuit, EMI/EMC, ESD, etc.).</t>
+  </si>
+  <si>
+    <t>Verify Safety of Components &amp; PCB.</t>
+  </si>
+  <si>
+    <t>Prioritization based on customer satisfaction, feedback, risk &amp; their potential impact to the customer.</t>
+  </si>
+  <si>
+    <t>DVP - PCB &amp; Components</t>
+  </si>
+  <si>
+    <t>Design Plan (APQP) - PCB &amp; Components</t>
+  </si>
+  <si>
+    <t>Abnormal Failures need to be evaluated (Spike, Surge, Ripple, Reverse Polarity, Short Circuit, EMI/EMC, ESD, etc.). Verify Safety of Components &amp; PCB. Prioritization based on customer satisfaction, feedback, risk &amp; their potential impact to the customer</t>
+  </si>
+  <si>
+    <t>Pending for 12 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality standards, Product standards and Risk tolerance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,8 +708,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +777,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1467,11 +1516,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1892,6 +1992,216 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,217 +2211,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2394,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2417,28 +2643,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="181"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
@@ -2468,10 +2694,10 @@
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="36" t="s">
         <v>50</v>
       </c>
@@ -2498,41 +2724,41 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="82" t="s">
         <v>2</v>
       </c>
@@ -2562,10 +2788,10 @@
       <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="178"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="73" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2801,7 @@
       <c r="F7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="171" t="s">
+      <c r="G7" s="195" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="74">
@@ -2595,10 +2821,10 @@
       <c r="A8" s="62">
         <v>2</v>
       </c>
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="211"/>
+      <c r="C8" s="204"/>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2608,14 +2834,14 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="172"/>
+      <c r="G8" s="196"/>
       <c r="H8" s="35">
         <v>44838</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="218" t="s">
+      <c r="J8" s="146" t="s">
         <v>156</v>
       </c>
       <c r="K8" s="53" t="s">
@@ -2626,10 +2852,10 @@
       <c r="A9" s="62">
         <v>3</v>
       </c>
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
@@ -2639,7 +2865,7 @@
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="172"/>
+      <c r="G9" s="196"/>
       <c r="H9" s="35">
         <v>45135</v>
       </c>
@@ -2657,10 +2883,10 @@
       <c r="A10" s="62">
         <v>4</v>
       </c>
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="208"/>
       <c r="D10" s="67" t="s">
         <v>33</v>
       </c>
@@ -2670,7 +2896,7 @@
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="172"/>
+      <c r="G10" s="196"/>
       <c r="H10" s="35">
         <v>45159</v>
       </c>
@@ -2688,10 +2914,10 @@
       <c r="A11" s="79">
         <v>5</v>
       </c>
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="193"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="88" t="s">
         <v>33</v>
       </c>
@@ -2721,10 +2947,10 @@
       <c r="A12" s="62">
         <v>6</v>
       </c>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="190"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2750,695 +2976,723 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A13" s="63">
+    <row r="13" spans="1:11" ht="24">
+      <c r="A13" s="65">
         <v>7</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="249" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="250"/>
+      <c r="D13" s="248" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="253" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="257">
+        <v>44838</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24">
+      <c r="A14" s="65">
+        <v>8</v>
+      </c>
+      <c r="B14" s="251" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="252"/>
+      <c r="D14" s="248" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="254"/>
+      <c r="F14" s="248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="260"/>
+      <c r="H14" s="258">
+        <v>45036</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A15" s="65">
+        <v>9</v>
+      </c>
+      <c r="B15" s="251" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="252"/>
+      <c r="D15" s="248" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="255"/>
+      <c r="F15" s="248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="261"/>
+      <c r="H15" s="257">
+        <v>45036</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A16" s="63">
+        <v>10</v>
+      </c>
+      <c r="B16" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="54" t="s">
+      <c r="C16" s="152"/>
+      <c r="D16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E16" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F16" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G16" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H16" s="56">
         <v>45063</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J16" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K16" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="207"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="194" t="s">
+    <row r="17" spans="1:11" ht="12.75" thickBot="1">
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="196"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="80" t="s">
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B19" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="86" t="s">
+      <c r="C19" s="162"/>
+      <c r="D19" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G19" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H19" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I19" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="80" t="s">
+      <c r="J19" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K19" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48">
-      <c r="A17" s="60">
+    <row r="20" spans="1:11" ht="48">
+      <c r="A20" s="60">
         <v>1</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B20" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="6" t="s">
+      <c r="C20" s="164"/>
+      <c r="D20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="204" t="s">
+      <c r="G20" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H20" s="41">
         <v>45049</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J20" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K20" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="62.25" customHeight="1">
-      <c r="A18" s="1">
+    <row r="21" spans="1:11" ht="62.25" customHeight="1">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B21" s="197" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="70" t="s">
+      <c r="C21" s="198"/>
+      <c r="D21" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E21" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="42">
+      <c r="G21" s="166"/>
+      <c r="H21" s="42">
         <v>45100</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="I21" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="77" t="s">
+      <c r="J21" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K21" s="53" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24">
-      <c r="A19" s="1">
+    <row r="22" spans="1:11" ht="24">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="173" t="s">
+      <c r="B22" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="67" t="s">
+      <c r="C22" s="198"/>
+      <c r="D22" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E22" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F22" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="42">
+      <c r="G22" s="166"/>
+      <c r="H22" s="42">
         <v>45117</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I22" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="77" t="s">
+      <c r="J22" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K22" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A20" s="61">
+    <row r="23" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A23" s="61">
         <v>4</v>
       </c>
-      <c r="B20" s="175" t="s">
+      <c r="B23" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="176"/>
-      <c r="D20" s="33" t="s">
+      <c r="C23" s="200"/>
+      <c r="D23" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="206"/>
-      <c r="H20" s="44">
+      <c r="G23" s="167"/>
+      <c r="H23" s="44">
         <v>45194</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J23" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K23" s="58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="197" t="s">
+    <row r="24" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="199"/>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A23" s="83" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" thickBot="1">
+      <c r="A26" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B26" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="94" t="s">
+      <c r="C26" s="173"/>
+      <c r="D26" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E26" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F26" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G26" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H26" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="117" t="s">
+      <c r="I26" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="117" t="s">
+      <c r="J26" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="118" t="s">
+      <c r="K26" s="118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A24" s="68">
+    <row r="27" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A27" s="68">
         <v>1</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B27" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="96" t="s">
+      <c r="C27" s="175"/>
+      <c r="D27" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E27" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F27" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H27" s="99">
         <v>45075</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I27" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J27" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K27" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A25" s="62">
+    <row r="28" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A28" s="62">
         <v>2</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B28" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="71" t="s">
+      <c r="C28" s="151"/>
+      <c r="D28" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E28" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G28" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H28" s="101">
         <v>45166</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I28" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="145" t="s">
+      <c r="J28" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K28" s="53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="36">
-      <c r="A26" s="62">
+    <row r="29" spans="1:11" ht="36">
+      <c r="A29" s="62">
         <v>3</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B29" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="71" t="s">
+      <c r="C29" s="171"/>
+      <c r="D29" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E29" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="100" t="s">
+      <c r="G29" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H29" s="101">
         <v>45156</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I29" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="219" t="s">
+      <c r="J29" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K29" s="53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="24">
-      <c r="A27" s="62">
+    <row r="30" spans="1:11" ht="24">
+      <c r="A30" s="62">
         <v>4</v>
       </c>
-      <c r="B27" s="166" t="s">
+      <c r="B30" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="71" t="s">
+      <c r="C30" s="171"/>
+      <c r="D30" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E30" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G30" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H30" s="101">
         <v>45135</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I30" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="77" t="s">
+      <c r="J30" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K30" s="53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A28" s="65">
+    <row r="31" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A31" s="65">
         <v>5</v>
       </c>
-      <c r="B28" s="168" t="s">
+      <c r="B31" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="102" t="s">
+      <c r="C31" s="169"/>
+      <c r="D31" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E31" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F31" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H31" s="105">
         <v>45135</v>
       </c>
-      <c r="I28" s="100" t="s">
+      <c r="I31" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="92" t="s">
+      <c r="J31" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K31" s="66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="54.75" customHeight="1">
-      <c r="A29" s="65">
+    <row r="32" spans="1:11" ht="54.75" customHeight="1">
+      <c r="A32" s="65">
         <v>6</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B32" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="106" t="s">
+      <c r="C32" s="170"/>
+      <c r="D32" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E32" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F32" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="109">
+      <c r="H32" s="109">
         <v>45135</v>
       </c>
-      <c r="I29" s="113" t="s">
+      <c r="I32" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="92" t="s">
+      <c r="J32" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K32" s="66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A30" s="63">
+    <row r="33" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A33" s="63">
         <v>7</v>
       </c>
-      <c r="B30" s="191" t="s">
+      <c r="B33" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="191"/>
-      <c r="D30" s="72" t="s">
+      <c r="C33" s="152"/>
+      <c r="D33" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="111" t="s">
+      <c r="E33" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="110" t="s">
+      <c r="F33" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="111" t="s">
+      <c r="G33" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="112">
+      <c r="H33" s="112">
         <v>45135</v>
       </c>
-      <c r="I30" s="93" t="s">
+      <c r="I33" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J33" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="K30" s="58" t="s">
+      <c r="K33" s="58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" thickBot="1">
-      <c r="C31" s="78"/>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A32" s="159" t="s">
+    <row r="34" spans="1:11" ht="12.75" thickBot="1">
+      <c r="C34" s="78"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A35" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="161"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="84" t="s">
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="190"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="162" t="s">
+      <c r="B36" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="85" t="s">
+      <c r="C36" s="192"/>
+      <c r="D36" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E36" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F36" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G36" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H36" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="85" t="s">
+      <c r="I36" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="85" t="s">
+      <c r="J36" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="116" t="s">
+      <c r="K36" s="116" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A34" s="68">
+    <row r="37" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A37" s="68">
         <v>1</v>
       </c>
-      <c r="B34" s="164" t="s">
+      <c r="B37" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="96" t="s">
+      <c r="C37" s="175"/>
+      <c r="D37" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="97" t="s">
+      <c r="E37" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="98" t="s">
+      <c r="F37" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="97" t="s">
+      <c r="G37" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="99">
+      <c r="H37" s="99">
         <v>45075</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I37" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J37" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K37" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
-      <c r="A35" s="62">
+    <row r="38" spans="1:11" ht="24">
+      <c r="A38" s="62">
         <v>2</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B38" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="71" t="s">
+      <c r="C38" s="171"/>
+      <c r="D38" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E38" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F38" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G38" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="101">
+      <c r="H38" s="101">
         <v>45135</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I38" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="51" t="s">
+      <c r="J38" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K38" s="53" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="62">
+    <row r="39" spans="1:11">
+      <c r="A39" s="62">
         <v>3</v>
       </c>
-      <c r="B36" s="216" t="s">
+      <c r="B39" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="216"/>
-      <c r="D36" s="4" t="s">
+      <c r="C39" s="148"/>
+      <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="64"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="62">
-        <v>4</v>
-      </c>
-      <c r="B37" s="217" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="217"/>
-      <c r="D37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="64"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="62">
-        <v>5</v>
-      </c>
-      <c r="B38" s="217" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="64"/>
-    </row>
-    <row r="39" spans="1:11" ht="24.75">
-      <c r="A39" s="62">
-        <v>6</v>
-      </c>
-      <c r="B39" s="217" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="115"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
         <v>7</v>
       </c>
@@ -3450,12 +3704,12 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="62">
-        <v>7</v>
-      </c>
-      <c r="B40" s="217" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="217"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="149"/>
       <c r="D40" s="4" t="s">
         <v>120</v>
       </c>
@@ -3469,301 +3723,485 @@
       <c r="J40" s="4"/>
       <c r="K40" s="64"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="63">
+    <row r="41" spans="1:11">
+      <c r="A41" s="62">
+        <v>5</v>
+      </c>
+      <c r="B41" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="149"/>
+      <c r="D41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="64"/>
+    </row>
+    <row r="42" spans="1:11" ht="24.75">
+      <c r="A42" s="62">
+        <v>6</v>
+      </c>
+      <c r="B42" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="149"/>
+      <c r="D42" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="115"/>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="64"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="62">
+        <v>7</v>
+      </c>
+      <c r="B43" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="149"/>
+      <c r="D43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="64"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="63">
         <v>8</v>
       </c>
-      <c r="B41" s="189" t="s">
+      <c r="B44" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="54" t="s">
+      <c r="C44" s="150"/>
+      <c r="D44" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E44" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F44" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G44" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="75">
+      <c r="H44" s="75">
         <v>45185</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I44" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="J44" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="K41" s="58" t="s">
+      <c r="K44" s="58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" thickBot="1"/>
-    <row r="45" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A45" s="151" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="48" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A48" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A46" s="120" t="s">
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" thickBot="1">
+      <c r="A49" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="146" t="s">
+      <c r="B49" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="120" t="s">
+      <c r="C49" s="217"/>
+      <c r="D49" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="119" t="s">
+      <c r="E49" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="119" t="s">
+      <c r="F49" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="119" t="s">
+      <c r="G49" s="119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.75">
-      <c r="A47" s="138">
+    <row r="50" spans="1:7" ht="12.75">
+      <c r="A50" s="138">
         <v>1</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B50" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="148"/>
-      <c r="D47" s="139" t="s">
+      <c r="C50" s="218"/>
+      <c r="D50" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="140" t="s">
+      <c r="E50" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="141" t="s">
+      <c r="F50" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="142" t="s">
+      <c r="G50" s="142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A48" s="130">
+    <row r="51" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A51" s="130">
         <v>2</v>
       </c>
-      <c r="B48" s="149" t="s">
+      <c r="B51" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="122" t="s">
+      <c r="C51" s="214"/>
+      <c r="D51" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="125" t="s">
+      <c r="E51" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="124" t="s">
+      <c r="F51" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="131" t="s">
+      <c r="G51" s="131" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A49" s="130">
+    <row r="52" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A52" s="130">
         <v>3</v>
       </c>
-      <c r="B49" s="149" t="s">
+      <c r="B52" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="149"/>
-      <c r="D49" s="122" t="s">
+      <c r="C52" s="214"/>
+      <c r="D52" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="123" t="s">
+      <c r="E52" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="126" t="s">
+      <c r="F52" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="132" t="s">
+      <c r="G52" s="132" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A50" s="133">
+    <row r="53" spans="1:7" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A53" s="133">
         <v>4</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B53" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="150"/>
-      <c r="D50" s="134" t="s">
+      <c r="C53" s="219"/>
+      <c r="D53" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="135" t="s">
+      <c r="E53" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="136" t="s">
+      <c r="F53" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="G50" s="137" t="s">
+      <c r="G53" s="137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" thickBot="1"/>
-    <row r="52" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A52" s="151" t="s">
+    <row r="54" spans="1:7" ht="12.75" thickBot="1"/>
+    <row r="55" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A55" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="153"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="128" t="s">
+      <c r="B55" s="210"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="210"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="211"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="154" t="s">
+      <c r="B56" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="155"/>
-      <c r="D53" s="129" t="s">
+      <c r="C56" s="213"/>
+      <c r="D56" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="129" t="s">
+      <c r="E56" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="129" t="s">
+      <c r="F56" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="129" t="s">
+      <c r="G56" s="129" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A54" s="130">
+    <row r="57" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A57" s="130">
         <v>1</v>
       </c>
-      <c r="B54" s="149" t="s">
+      <c r="B57" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="149"/>
-      <c r="D54" s="122" t="s">
+      <c r="C57" s="214"/>
+      <c r="D57" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="123" t="s">
+      <c r="E57" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="124" t="s">
+      <c r="F57" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="143" t="s">
+      <c r="G57" s="143" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A55" s="133">
+    <row r="58" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A58" s="133">
         <v>2</v>
       </c>
-      <c r="B55" s="156" t="s">
+      <c r="B58" s="215" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="156"/>
-      <c r="D55" s="134" t="s">
+      <c r="C58" s="215"/>
+      <c r="D58" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E58" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="F55" s="136" t="s">
+      <c r="F58" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="144" t="s">
+      <c r="G58" s="144" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="81" spans="5:22" ht="48" customHeight="1" thickBot="1">
+      <c r="E81" s="220">
+        <v>3</v>
+      </c>
+      <c r="F81" s="221"/>
+      <c r="G81" s="223" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="222"/>
+      <c r="I81" s="222"/>
+      <c r="J81" s="222"/>
+      <c r="K81" s="224"/>
+      <c r="L81" s="225" t="s">
+        <v>165</v>
+      </c>
+      <c r="M81" s="226"/>
+      <c r="N81" s="228" t="s">
+        <v>166</v>
+      </c>
+      <c r="O81" s="227"/>
+      <c r="P81" s="229"/>
+      <c r="Q81" s="233" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81" s="234"/>
+      <c r="S81" s="235">
+        <v>44838</v>
+      </c>
+      <c r="T81" s="236"/>
+      <c r="U81" s="220"/>
+      <c r="V81" s="221"/>
+    </row>
+    <row r="82" spans="5:22" ht="24" customHeight="1" thickBot="1">
+      <c r="E82" s="237">
+        <v>4</v>
+      </c>
+      <c r="F82" s="238"/>
+      <c r="G82" s="239" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" s="240"/>
+      <c r="I82" s="240"/>
+      <c r="J82" s="240"/>
+      <c r="K82" s="241"/>
+      <c r="L82" s="242" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82" s="243"/>
+      <c r="N82" s="228" t="s">
+        <v>167</v>
+      </c>
+      <c r="O82" s="227"/>
+      <c r="P82" s="229"/>
+      <c r="Q82" s="244" t="s">
+        <v>11</v>
+      </c>
+      <c r="R82" s="245"/>
+      <c r="S82" s="246">
+        <v>45036</v>
+      </c>
+      <c r="T82" s="247"/>
+      <c r="U82" s="237"/>
+      <c r="V82" s="238"/>
+    </row>
+    <row r="83" spans="5:22" ht="36" customHeight="1" thickBot="1">
+      <c r="E83" s="237">
+        <v>5</v>
+      </c>
+      <c r="F83" s="238"/>
+      <c r="G83" s="239" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" s="240"/>
+      <c r="I83" s="240"/>
+      <c r="J83" s="240"/>
+      <c r="K83" s="241"/>
+      <c r="L83" s="242" t="s">
+        <v>165</v>
+      </c>
+      <c r="M83" s="243"/>
+      <c r="N83" s="231" t="s">
+        <v>168</v>
+      </c>
+      <c r="O83" s="230"/>
+      <c r="P83" s="232"/>
+      <c r="Q83" s="244" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" s="245"/>
+      <c r="S83" s="246">
+        <v>45036</v>
+      </c>
+      <c r="T83" s="247"/>
+      <c r="U83"/>
+      <c r="V83"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="76">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A35:K35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="B17:K17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
